--- a/Scrum/SPRINT BACKLOG/SprintBacklog3.xlsx
+++ b/Scrum/SPRINT BACKLOG/SprintBacklog3.xlsx
@@ -16,7 +16,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -577,6 +576,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -612,15 +620,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -720,7 +719,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]Sheet1!$C$23</c:f>
+              <c:f>[1]Sheet1!$C$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -743,7 +742,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Sheet1!$E$3:$R$3</c:f>
+              <c:f>[1]Sheet1!$E$3:$R$3</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -852,7 +851,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]Sheet1!$C$24</c:f>
+              <c:f>[1]Sheet1!$C$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -875,7 +874,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Sheet1!$E$3:$R$3</c:f>
+              <c:f>[1]Sheet1!$E$3:$R$3</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -988,11 +987,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="639756320"/>
-        <c:axId val="639745984"/>
+        <c:axId val="637337280"/>
+        <c:axId val="637336192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="639756320"/>
+        <c:axId val="637337280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,7 +1034,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="639745984"/>
+        <c:crossAx val="637336192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1043,7 +1042,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="639745984"/>
+        <c:axId val="637336192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1150,7 +1149,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="639756320"/>
+        <c:crossAx val="637337280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1832,120 +1831,6 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>Actual Remaining Hours</v>
-          </cell>
-          <cell r="D23">
-            <v>95</v>
-          </cell>
-          <cell r="E23">
-            <v>88</v>
-          </cell>
-          <cell r="F23">
-            <v>83</v>
-          </cell>
-          <cell r="G23">
-            <v>77</v>
-          </cell>
-          <cell r="H23">
-            <v>71</v>
-          </cell>
-          <cell r="I23">
-            <v>64</v>
-          </cell>
-          <cell r="J23">
-            <v>56</v>
-          </cell>
-          <cell r="K23">
-            <v>49</v>
-          </cell>
-          <cell r="L23">
-            <v>38</v>
-          </cell>
-          <cell r="M23">
-            <v>32</v>
-          </cell>
-          <cell r="N23">
-            <v>20</v>
-          </cell>
-          <cell r="O23">
-            <v>14</v>
-          </cell>
-          <cell r="P23">
-            <v>9</v>
-          </cell>
-          <cell r="Q23">
-            <v>5</v>
-          </cell>
-          <cell r="R23">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24" t="str">
-            <v>Estimated Remaining Hours</v>
-          </cell>
-          <cell r="D24">
-            <v>95</v>
-          </cell>
-          <cell r="E24">
-            <v>88.214285714285708</v>
-          </cell>
-          <cell r="F24">
-            <v>81.428571428571416</v>
-          </cell>
-          <cell r="G24">
-            <v>74.642857142857125</v>
-          </cell>
-          <cell r="H24">
-            <v>67.857142857142833</v>
-          </cell>
-          <cell r="I24">
-            <v>61.071428571428548</v>
-          </cell>
-          <cell r="J24">
-            <v>54.285714285714263</v>
-          </cell>
-          <cell r="K24">
-            <v>47.499999999999979</v>
-          </cell>
-          <cell r="L24">
-            <v>40.714285714285694</v>
-          </cell>
-          <cell r="M24">
-            <v>33.928571428571409</v>
-          </cell>
-          <cell r="N24">
-            <v>27.142857142857125</v>
-          </cell>
-          <cell r="O24">
-            <v>20.35714285714284</v>
-          </cell>
-          <cell r="P24">
-            <v>13.571428571428555</v>
-          </cell>
-          <cell r="Q24">
-            <v>6.7857142857142696</v>
-          </cell>
-          <cell r="R24">
-            <v>-1.5987211554602254E-14</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
         <row r="3">
           <cell r="E3" t="str">
             <v>Day 1</v>
@@ -1994,100 +1879,10 @@
           <cell r="C23" t="str">
             <v>Actual Remaining Hours</v>
           </cell>
-          <cell r="D23">
-            <v>95</v>
-          </cell>
-          <cell r="E23">
-            <v>88</v>
-          </cell>
-          <cell r="F23">
-            <v>83</v>
-          </cell>
-          <cell r="G23">
-            <v>77</v>
-          </cell>
-          <cell r="H23">
-            <v>71</v>
-          </cell>
-          <cell r="I23">
-            <v>64</v>
-          </cell>
-          <cell r="J23">
-            <v>56</v>
-          </cell>
-          <cell r="K23">
-            <v>49</v>
-          </cell>
-          <cell r="L23">
-            <v>38</v>
-          </cell>
-          <cell r="M23">
-            <v>32</v>
-          </cell>
-          <cell r="N23">
-            <v>20</v>
-          </cell>
-          <cell r="O23">
-            <v>14</v>
-          </cell>
-          <cell r="P23">
-            <v>9</v>
-          </cell>
-          <cell r="Q23">
-            <v>5</v>
-          </cell>
-          <cell r="R23">
-            <v>1</v>
-          </cell>
         </row>
         <row r="24">
           <cell r="C24" t="str">
             <v>Estimated Remaining Hours</v>
-          </cell>
-          <cell r="D24">
-            <v>95</v>
-          </cell>
-          <cell r="E24">
-            <v>88.214285714285708</v>
-          </cell>
-          <cell r="F24">
-            <v>81.428571428571416</v>
-          </cell>
-          <cell r="G24">
-            <v>74.642857142857125</v>
-          </cell>
-          <cell r="H24">
-            <v>67.857142857142833</v>
-          </cell>
-          <cell r="I24">
-            <v>61.071428571428548</v>
-          </cell>
-          <cell r="J24">
-            <v>54.285714285714263</v>
-          </cell>
-          <cell r="K24">
-            <v>47.499999999999979</v>
-          </cell>
-          <cell r="L24">
-            <v>40.714285714285694</v>
-          </cell>
-          <cell r="M24">
-            <v>33.928571428571409</v>
-          </cell>
-          <cell r="N24">
-            <v>27.142857142857125</v>
-          </cell>
-          <cell r="O24">
-            <v>20.35714285714284</v>
-          </cell>
-          <cell r="P24">
-            <v>13.571428571428555</v>
-          </cell>
-          <cell r="Q24">
-            <v>6.7857142857142696</v>
-          </cell>
-          <cell r="R24">
-            <v>-1.5987211554602254E-14</v>
           </cell>
         </row>
       </sheetData>
@@ -2361,8 +2156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2373,39 +2168,39 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="44"/>
-      <c r="T2" s="45" t="s">
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="47"/>
+      <c r="T2" s="33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="37"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2448,10 +2243,10 @@
       <c r="R3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="46"/>
+      <c r="T3" s="34"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="35" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2488,7 +2283,7 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="10" t="s">
         <v>21</v>
       </c>
@@ -2535,7 +2330,7 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="47"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="10" t="s">
         <v>22</v>
       </c>
@@ -2570,7 +2365,7 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="47"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="10" t="s">
         <v>23</v>
       </c>
@@ -2609,7 +2404,7 @@
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="47"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="10" t="s">
         <v>24</v>
       </c>
@@ -2638,7 +2433,7 @@
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="47"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
       <c r="E9" s="6"/>
@@ -2661,7 +2456,7 @@
       </c>
     </row>
     <row r="10" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="47"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="13"/>
       <c r="D10" s="11"/>
       <c r="E10" s="6"/>
@@ -2684,7 +2479,7 @@
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="36" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2717,7 +2512,7 @@
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="34"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="10" t="s">
         <v>27</v>
       </c>
@@ -2748,7 +2543,7 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="34"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="10" t="s">
         <v>28</v>
       </c>
@@ -2785,7 +2580,7 @@
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="34"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="10" t="s">
         <v>29</v>
       </c>
@@ -2814,7 +2609,7 @@
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="10" t="s">
         <v>30</v>
       </c>
@@ -2849,7 +2644,7 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="34"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="10" t="s">
         <v>31</v>
       </c>
@@ -2878,7 +2673,7 @@
       </c>
     </row>
     <row r="17" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="35"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="17"/>
       <c r="D17" s="18"/>
       <c r="E17" s="19"/>
